--- a/BoM/Generic/rcbus-opl3-bom.xlsx
+++ b/BoM/Generic/rcbus-opl3-bom.xlsx
@@ -404,7 +404,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2025-09-29</t>
+    <t>2025-10-01</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/BoM/Generic/rcbus-opl3-bom.xlsx
+++ b/BoM/Generic/rcbus-opl3-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="128">
   <si>
     <t>Row</t>
   </si>
@@ -107,261 +107,219 @@
     <t>3</t>
   </si>
   <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>10nF</t>
+    <t>C1 C6 C7 C12 C19</t>
+  </si>
+  <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>C1 C3 C6 C7 C12 C19</t>
-  </si>
-  <si>
-    <t>0.1uF</t>
+    <t>Polarized capacitor, small symbol</t>
+  </si>
+  <si>
+    <t>C_Polarized_Small</t>
+  </si>
+  <si>
+    <t>C8 C15 C16</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>CP_Elec_6.3x5.8</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>100uF</t>
+  </si>
+  <si>
+    <t>CP_Elec_6.3x7.7</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Polarized capacitor, small symbol</t>
-  </si>
-  <si>
-    <t>C_Polarized_Small</t>
-  </si>
-  <si>
-    <t>C15 C16</t>
-  </si>
-  <si>
-    <t>10uf</t>
-  </si>
-  <si>
-    <t>CP_Elec_5x5.9</t>
-  </si>
-  <si>
-    <t>C4 C5</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>C_1206_3216Metric</t>
+    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
+  </si>
+  <si>
+    <t>AudioJack3_SwitchTR</t>
+  </si>
+  <si>
+    <t>CON1</t>
+  </si>
+  <si>
+    <t>SJ1-3523N</t>
+  </si>
+  <si>
+    <t>Headphone_Jack_3.5mm_5_pin</t>
+  </si>
+  <si>
+    <t>CP1-3523N-ND</t>
+  </si>
+  <si>
+    <t>Connectors, Interconnects</t>
+  </si>
+  <si>
+    <t>Barrel - Audio Connectors</t>
+  </si>
+  <si>
+    <t>https://www.cui.com/product/resource/digikeypdf/sj1-352xn_series.pdf</t>
+  </si>
+  <si>
+    <t>/product-detail/en/cui-inc/SJ1-3523N/CP1-3523N-ND/738689</t>
+  </si>
+  <si>
+    <t>CUI Inc.</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>C8</t>
+    <t>Generic connector, double row, 02x06, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x06_Odd_Even</t>
+  </si>
+  <si>
+    <t>JP1</t>
+  </si>
+  <si>
+    <t>BASE ADDRESS</t>
+  </si>
+  <si>
+    <t>PinHeader_2x06_P2.54mm_Vertical</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
-  </si>
-  <si>
-    <t>AudioJack3_SwitchTR</t>
-  </si>
-  <si>
-    <t>CON1</t>
-  </si>
-  <si>
-    <t>SJ1-3523N</t>
-  </si>
-  <si>
-    <t>Headphone_Jack_3.5mm_5_pin</t>
-  </si>
-  <si>
-    <t>CP1-3523N-ND</t>
-  </si>
-  <si>
-    <t>Connectors, Interconnects</t>
-  </si>
-  <si>
-    <t>Barrel - Audio Connectors</t>
-  </si>
-  <si>
-    <t>https://www.cui.com/product/resource/digikeypdf/sj1-352xn_series.pdf</t>
-  </si>
-  <si>
-    <t>/product-detail/en/cui-inc/SJ1-3523N/CP1-3523N-ND/738689</t>
-  </si>
-  <si>
-    <t>CUI Inc.</t>
+    <t>Generic connector, single row, 01x39, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_01x39</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>RC2014 BUS</t>
+  </si>
+  <si>
+    <t>PinHeader_1x39_P2.54mm_Vertical</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>Generic connector, double row, 02x06, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x06_Odd_Even</t>
-  </si>
-  <si>
-    <t>JP1</t>
-  </si>
-  <si>
-    <t>BASE ADDRESS</t>
-  </si>
-  <si>
-    <t>PinHeader_2x06_P2.54mm_Vertical</t>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>R_0603_1608Metric</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>Inductor</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>33uH</t>
-  </si>
-  <si>
-    <t>L_0603_1608Metric</t>
+    <t>R8 R9</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>BLM18PG221SN1D</t>
+    <t>Resistor, small symbol</t>
+  </si>
+  <si>
+    <t>R_Small</t>
+  </si>
+  <si>
+    <t>R1 R2 R3 R4 R5 R6 R10 R11</t>
+  </si>
+  <si>
+    <t>10K</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>Generic connector, single row, 01x39, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_01x39</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>RC2014 BUS</t>
-  </si>
-  <si>
-    <t>PinHeader_1x39_P2.54mm_Vertical</t>
+    <t>8-bit magnitude comparator</t>
+  </si>
+  <si>
+    <t>74HCT688</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>SOIC-20W_7.5x12.8mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/lit/ds/symlink/cd54hc688.pdf</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>R_0603_1608Metric</t>
+    <t>Quad Low-Noise JFET-Input Operational Amplifiers, DIP-14/SOIC-14</t>
+  </si>
+  <si>
+    <t>TL074</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>SOIC-14_3.9x8.7mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>http://www.ti.com/lit/ds/symlink/tl071.pdf</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>R8 R9</t>
-  </si>
-  <si>
-    <t>100</t>
+    <t>YAC512</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>SOP-16_4.55x10.3mm_P1.27mm</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>Resistor, small symbol</t>
-  </si>
-  <si>
-    <t>R_Small</t>
-  </si>
-  <si>
-    <t>R1 R2 R3 R4 R5 R6 R10 R11</t>
-  </si>
-  <si>
-    <t>10K</t>
+    <t>YMF262</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>SOP-24_7.5x15.4mm_P1.27mm</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>8-bit magnitude comparator</t>
-  </si>
-  <si>
-    <t>74HCT688</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>SOIC-20W_7.5x12.8mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>https://www.ti.com/lit/ds/symlink/cd54hc688.pdf</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Quad Low-Noise JFET-Input Operational Amplifiers, DIP-14/SOIC-14</t>
-  </si>
-  <si>
-    <t>TL074</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>SOIC-14_3.9x8.7mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>http://www.ti.com/lit/ds/symlink/tl071.pdf</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>YAC512</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>SOP-16_4.55x10.3mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>YMF262</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>SOP-24_7.5x15.4mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>3.3V HCMOS SMD Crystal Clock Oscillator, Abracon</t>
   </si>
   <si>
@@ -419,7 +377,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>36 (33 SMD/ 3 THT)</t>
+    <t>31 (28 SMD/ 3 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -940,7 +898,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -969,7 +927,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -987,55 +945,55 @@
     </row>
     <row r="2" spans="1:16">
       <c r="C2" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="F2" s="3">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="C3" s="2" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="C4" s="2" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="C5" s="2" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1043,16 +1001,16 @@
     </row>
     <row r="6" spans="1:16">
       <c r="C6" s="2" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="F6" s="3">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1225,7 +1183,7 @@
         <v>21</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>22</v>
@@ -1257,25 +1215,25 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>22</v>
@@ -1307,13 +1265,13 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>38</v>
@@ -1325,7 +1283,7 @@
         <v>40</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>22</v>
@@ -1355,27 +1313,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" ht="30" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>22</v>
@@ -1383,46 +1341,46 @@
       <c r="I14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="P14" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="J14" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="45" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>16</v>
@@ -1457,22 +1415,22 @@
     </row>
     <row r="16" spans="1:16" ht="30" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>16</v>
@@ -1483,46 +1441,46 @@
       <c r="I16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="M16" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="N16" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="O16" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="P16" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="45" customHeight="1">
+      <c r="J16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="5" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>16</v>
@@ -1557,25 +1515,25 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>22</v>
@@ -1607,25 +1565,25 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="G19" s="5" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>22</v>
@@ -1655,24 +1613,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="30" customHeight="1">
+    <row r="20" spans="1:16">
       <c r="A20" s="9" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>16</v>
@@ -1680,8 +1638,8 @@
       <c r="H20" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="12" t="s">
-        <v>23</v>
+      <c r="I20" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="J20" s="12" t="s">
         <v>24</v>
@@ -1705,24 +1663,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>16</v>
@@ -1730,8 +1688,8 @@
       <c r="H21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="8" t="s">
-        <v>23</v>
+      <c r="I21" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>24</v>
@@ -1757,31 +1715,31 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>80</v>
+        <v>91</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>22</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J22" s="12" t="s">
         <v>24</v>
@@ -1807,31 +1765,31 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>89</v>
+        <v>95</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>22</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>24</v>
@@ -1857,22 +1815,22 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="9" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>16</v>
@@ -1881,7 +1839,7 @@
         <v>22</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="J24" s="12" t="s">
         <v>24</v>
@@ -1902,206 +1860,6 @@
         <v>24</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="30" customHeight="1">
-      <c r="A25" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="O25" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="P25" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="M26" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N26" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="O26" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="P26" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="O27" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="P27" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="M28" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N28" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="O28" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="P28" s="12" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2128,27 +1886,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="8" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Generic/rcbus-opl3-bom.xlsx
+++ b/BoM/Generic/rcbus-opl3-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="129">
   <si>
     <t>Row</t>
   </si>
@@ -125,10 +125,10 @@
     <t>C_Polarized_Small</t>
   </si>
   <si>
-    <t>C8 C15 C16</t>
-  </si>
-  <si>
-    <t>10uF</t>
+    <t>C2 C8 C15 C16</t>
+  </si>
+  <si>
+    <t>10uf</t>
   </si>
   <si>
     <t>CP_Elec_6.3x5.8</t>
@@ -155,15 +155,18 @@
     <t>CON1</t>
   </si>
   <si>
+    <t>3.5mm jack</t>
+  </si>
+  <si>
+    <t>Headphone_Jack_3.5mm_5_pin</t>
+  </si>
+  <si>
+    <t>CP1-3523N-ND</t>
+  </si>
+  <si>
     <t>SJ1-3523N</t>
   </si>
   <si>
-    <t>Headphone_Jack_3.5mm_5_pin</t>
-  </si>
-  <si>
-    <t>CP1-3523N-ND</t>
-  </si>
-  <si>
     <t>Connectors, Interconnects</t>
   </si>
   <si>
@@ -329,7 +332,7 @@
     <t>Y1</t>
   </si>
   <si>
-    <t>SG-8002CA</t>
+    <t>14.3181MHz</t>
   </si>
   <si>
     <t>Oscillator_SMD_Abracon_ASV-4Pin_7.0x5.1mm</t>
@@ -362,7 +365,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2025-10-01</t>
+    <t>2025-10-04</t>
   </si>
   <si>
     <t>KiCad Version:</t>
@@ -377,7 +380,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>31 (28 SMD/ 3 THT)</t>
+    <t>32 (29 SMD/ 3 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -927,7 +930,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -945,13 +948,13 @@
     </row>
     <row r="2" spans="1:16">
       <c r="C2" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F2" s="3">
         <v>16</v>
@@ -959,41 +962,41 @@
     </row>
     <row r="3" spans="1:16">
       <c r="C3" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="C4" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="C5" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1001,16 +1004,16 @@
     </row>
     <row r="6" spans="1:16">
       <c r="C6" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F6" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1233,7 +1236,7 @@
         <v>37</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>22</v>
@@ -1345,42 +1348,42 @@
         <v>47</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="45" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>16</v>
@@ -1415,22 +1418,22 @@
     </row>
     <row r="16" spans="1:16" ht="30" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>16</v>
@@ -1465,22 +1468,22 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>16</v>
@@ -1515,22 +1518,22 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>71</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>70</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>25</v>
@@ -1565,25 +1568,25 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>22</v>
@@ -1615,22 +1618,22 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D20" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>81</v>
-      </c>
       <c r="F20" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>16</v>
@@ -1639,7 +1642,7 @@
         <v>22</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J20" s="12" t="s">
         <v>24</v>
@@ -1665,22 +1668,22 @@
     </row>
     <row r="21" spans="1:16" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D21" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="F21" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>16</v>
@@ -1689,7 +1692,7 @@
         <v>22</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>24</v>
@@ -1715,22 +1718,22 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D22" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>92</v>
-      </c>
       <c r="F22" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>16</v>
@@ -1765,22 +1768,22 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="F23" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>16</v>
@@ -1815,22 +1818,22 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>16</v>
@@ -1839,7 +1842,7 @@
         <v>22</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J24" s="12" t="s">
         <v>24</v>
@@ -1886,27 +1889,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Generic/rcbus-opl3-bom.xlsx
+++ b/BoM/Generic/rcbus-opl3-bom.xlsx
@@ -365,7 +365,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2025-10-04</t>
+    <t>2025-10-05</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/BoM/Generic/rcbus-opl3-bom.xlsx
+++ b/BoM/Generic/rcbus-opl3-bom.xlsx
@@ -365,7 +365,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2025-10-05</t>
+    <t>2025-10-06</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/BoM/Generic/rcbus-opl3-bom.xlsx
+++ b/BoM/Generic/rcbus-opl3-bom.xlsx
@@ -365,7 +365,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2025-10-06</t>
+    <t>2025-10-07</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/BoM/Generic/rcbus-opl3-bom.xlsx
+++ b/BoM/Generic/rcbus-opl3-bom.xlsx
@@ -365,7 +365,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2025-10-07</t>
+    <t>2025-10-08</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/BoM/Generic/rcbus-opl3-bom.xlsx
+++ b/BoM/Generic/rcbus-opl3-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="128">
   <si>
     <t>Row</t>
   </si>
@@ -77,10 +77,10 @@
     <t>C_Small</t>
   </si>
   <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>68pf</t>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>68pF</t>
   </si>
   <si>
     <t>C_0603_1608Metric</t>
@@ -98,16 +98,16 @@
     <t>2</t>
   </si>
   <si>
-    <t>C9 C10</t>
-  </si>
-  <si>
-    <t>2.7nf</t>
+    <t>C3 C4</t>
+  </si>
+  <si>
+    <t>2.7nF</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>C1 C6 C7 C12 C19</t>
+    <t>C2 C8 C11 C12 C13</t>
   </si>
   <si>
     <t>0.1uF</t>
@@ -125,16 +125,16 @@
     <t>C_Polarized_Small</t>
   </si>
   <si>
-    <t>C2 C8 C15 C16</t>
-  </si>
-  <si>
-    <t>10uf</t>
+    <t>C1 C6 C7 C10</t>
+  </si>
+  <si>
+    <t>10uF</t>
   </si>
   <si>
     <t>CP_Elec_6.3x5.8</t>
   </si>
   <si>
-    <t>C5</t>
+    <t>C9</t>
   </si>
   <si>
     <t>100uF</t>
@@ -227,7 +227,7 @@
     <t>R</t>
   </si>
   <si>
-    <t>R7</t>
+    <t>R1</t>
   </si>
   <si>
     <t>33</t>
@@ -239,7 +239,7 @@
     <t>10</t>
   </si>
   <si>
-    <t>R8 R9</t>
+    <t>R2 R3</t>
   </si>
   <si>
     <t>100</t>
@@ -248,13 +248,10 @@
     <t>11</t>
   </si>
   <si>
-    <t>Resistor, small symbol</t>
-  </si>
-  <si>
-    <t>R_Small</t>
-  </si>
-  <si>
-    <t>R1 R2 R3 R4 R5 R6 R10 R11</t>
+    <t>Resistor Resistor, small symbol</t>
+  </si>
+  <si>
+    <t>R4 R5 R6 R7 R8 R9 R10 R11</t>
   </si>
   <si>
     <t>10K</t>
@@ -269,54 +266,54 @@
     <t>74HCT688</t>
   </si>
   <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>SOIC-20W_7.5x12.8mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/lit/ds/symlink/cd54hc688.pdf</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Quad Low-Noise JFET-Input Operational Amplifiers, DIP-14/SOIC-14</t>
+  </si>
+  <si>
+    <t>TL074</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>SOIC-14_3.9x8.7mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>http://www.ti.com/lit/ds/symlink/tl071.pdf</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>YAC512</t>
+  </si>
+  <si>
     <t>U1</t>
   </si>
   <si>
-    <t>SOIC-20W_7.5x12.8mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>https://www.ti.com/lit/ds/symlink/cd54hc688.pdf</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Quad Low-Noise JFET-Input Operational Amplifiers, DIP-14/SOIC-14</t>
-  </si>
-  <si>
-    <t>TL074</t>
+    <t>SOP-16_4.55x10.3mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>YMF262</t>
   </si>
   <si>
     <t>U4</t>
   </si>
   <si>
-    <t>SOIC-14_3.9x8.7mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>http://www.ti.com/lit/ds/symlink/tl071.pdf</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>YAC512</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>SOP-16_4.55x10.3mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>YMF262</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
     <t>SOP-24_7.5x15.4mm_P1.27mm</t>
   </si>
   <si>
@@ -365,7 +362,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2025-10-08</t>
+    <t>2025-10-09</t>
   </si>
   <si>
     <t>KiCad Version:</t>
@@ -930,7 +927,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -948,13 +945,13 @@
     </row>
     <row r="2" spans="1:16">
       <c r="C2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F2" s="3">
         <v>16</v>
@@ -962,41 +959,41 @@
     </row>
     <row r="3" spans="1:16">
       <c r="C3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="C4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="C5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1004,13 +1001,13 @@
     </row>
     <row r="6" spans="1:16">
       <c r="C6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F6" s="3">
         <v>32</v>
@@ -1574,13 +1571,13 @@
         <v>76</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>71</v>
@@ -1618,22 +1615,22 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="C20" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="D20" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="E20" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="11" t="s">
         <v>83</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>84</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>16</v>
@@ -1642,7 +1639,7 @@
         <v>22</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J20" s="12" t="s">
         <v>24</v>
@@ -1668,22 +1665,22 @@
     </row>
     <row r="21" spans="1:16" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>16</v>
@@ -1692,7 +1689,7 @@
         <v>22</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>24</v>
@@ -1718,22 +1715,22 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="11" t="s">
+      <c r="D22" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="E22" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>94</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>95</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>16</v>
@@ -1768,22 +1765,22 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="E23" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>16</v>
@@ -1818,22 +1815,22 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="C24" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="D24" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="E24" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="F24" s="11" t="s">
         <v>104</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>105</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>16</v>
@@ -1842,7 +1839,7 @@
         <v>22</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J24" s="12" t="s">
         <v>24</v>
@@ -1889,27 +1886,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Generic/rcbus-opl3-bom.xlsx
+++ b/BoM/Generic/rcbus-opl3-bom.xlsx
@@ -77,7 +77,7 @@
     <t>C_Small</t>
   </si>
   <si>
-    <t>C5</t>
+    <t>C6</t>
   </si>
   <si>
     <t>68pF</t>
@@ -107,7 +107,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>C2 C8 C11 C12 C13</t>
+    <t>C5 C8 C11 C12 C13</t>
   </si>
   <si>
     <t>0.1uF</t>
@@ -125,7 +125,7 @@
     <t>C_Polarized_Small</t>
   </si>
   <si>
-    <t>C1 C6 C7 C10</t>
+    <t>C1 C2 C7 C10</t>
   </si>
   <si>
     <t>10uF</t>
@@ -239,7 +239,7 @@
     <t>10</t>
   </si>
   <si>
-    <t>R2 R3</t>
+    <t>R3 R4</t>
   </si>
   <si>
     <t>100</t>
@@ -251,7 +251,7 @@
     <t>Resistor Resistor, small symbol</t>
   </si>
   <si>
-    <t>R4 R5 R6 R7 R8 R9 R10 R11</t>
+    <t>R2 R5 R6 R7 R8 R9 R10 R11</t>
   </si>
   <si>
     <t>10K</t>
@@ -284,22 +284,22 @@
     <t>TL074</t>
   </si>
   <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>SOIC-14_3.9x8.7mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>http://www.ti.com/lit/ds/symlink/tl071.pdf</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>YAC512</t>
+  </si>
+  <si>
     <t>U2</t>
-  </si>
-  <si>
-    <t>SOIC-14_3.9x8.7mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>http://www.ti.com/lit/ds/symlink/tl071.pdf</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>YAC512</t>
-  </si>
-  <si>
-    <t>U1</t>
   </si>
   <si>
     <t>SOP-16_4.55x10.3mm_P1.27mm</t>

--- a/BoM/Generic/rcbus-opl3-bom.xlsx
+++ b/BoM/Generic/rcbus-opl3-bom.xlsx
@@ -362,7 +362,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2025-10-09</t>
+    <t>2025-10-11</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/BoM/Generic/rcbus-opl3-bom.xlsx
+++ b/BoM/Generic/rcbus-opl3-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="134">
   <si>
     <t>Row</t>
   </si>
@@ -119,7 +119,7 @@
     <t>4</t>
   </si>
   <si>
-    <t>Polarized capacitor, small symbol</t>
+    <t>Polymer Aluminium Electrolytic Capacitor, 10 µF, 10 V, Radial Can - SMD, 0.045 ohm</t>
   </si>
   <si>
     <t>C_Polarized_Small</t>
@@ -134,6 +134,15 @@
     <t>CP_Elec_6.3x5.8</t>
   </si>
   <si>
+    <t>https://www.we-online.com/components/products/datasheet/875105240001.pdf</t>
+  </si>
+  <si>
+    <t>875105240001</t>
+  </si>
+  <si>
+    <t>Polymer Aluminium Electrolytic Capacitor, 100 µF, 25 V, Radial Can - SMD, 0.036 ohm</t>
+  </si>
+  <si>
     <t>C9</t>
   </si>
   <si>
@@ -248,7 +257,7 @@
     <t>11</t>
   </si>
   <si>
-    <t>Resistor Resistor, small symbol</t>
+    <t>Resistor SMD Chip Resistor, 10 kohm, ± 1%, 100 mW, 0603 [1608 Metric], Thick Film, General Purpose</t>
   </si>
   <si>
     <t>R2 R5 R6 R7 R8 R9 R10 R11</t>
@@ -260,7 +269,7 @@
     <t>12</t>
   </si>
   <si>
-    <t>8-bit magnitude comparator</t>
+    <t>Digital Comparator, 74HCT688, Magnitude, 8 Channels, 8bit, SOIC, 20 Pins</t>
   </si>
   <si>
     <t>74HCT688</t>
@@ -296,6 +305,9 @@
     <t>14</t>
   </si>
   <si>
+    <t>2-Channel floating D/A converter</t>
+  </si>
+  <si>
     <t>YAC512</t>
   </si>
   <si>
@@ -305,6 +317,9 @@
     <t>SOP-16_4.55x10.3mm_P1.27mm</t>
   </si>
   <si>
+    <t>https://www.ardent-tool.com/datasheets/Yamaha_YAC512.pdf</t>
+  </si>
+  <si>
     <t>15</t>
   </si>
   <si>
@@ -317,10 +332,13 @@
     <t>SOP-24_7.5x15.4mm_P1.27mm</t>
   </si>
   <si>
+    <t>http://www.bitsavers.org/components/yamaha/YMF262_199110.pdf</t>
+  </si>
+  <si>
     <t>16</t>
   </si>
   <si>
-    <t>3.3V HCMOS SMD Crystal Clock Oscillator, Abracon</t>
+    <t>Oscillator, 14.31818 MHz, 25 ppm, SMD, 7mm x 5mm, CMOS / TTL, 5 V</t>
   </si>
   <si>
     <t>ASV-xxxMHz</t>
@@ -335,7 +353,7 @@
     <t>Oscillator_SMD_Abracon_ASV-4Pin_7.0x5.1mm</t>
   </si>
   <si>
-    <t>http://www.abracon.com/Oscillators/ASV.pdf</t>
+    <t>https://4donline.ihs.com/images/VipMasterIC/IC/SCMP/SCMP-S-A0010069830/SCMP-S-A0010069830-1.pdf?hkey=6D3A4C79FDBF58556ACFDE234799DDF0</t>
   </si>
   <si>
     <t>KiBot Bill of Materials</t>
@@ -915,9 +933,9 @@
     <col min="6" max="6" width="46.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="52.7109375" customWidth="1"/>
+    <col min="9" max="9" width="60.7109375" customWidth="1"/>
     <col min="10" max="10" width="21.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" customWidth="1"/>
     <col min="13" max="13" width="30.7109375" customWidth="1"/>
     <col min="14" max="14" width="60.7109375" customWidth="1"/>
@@ -927,7 +945,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -945,13 +963,13 @@
     </row>
     <row r="2" spans="1:16">
       <c r="C2" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F2" s="3">
         <v>16</v>
@@ -959,41 +977,41 @@
     </row>
     <row r="3" spans="1:16">
       <c r="C3" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="C4" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="C5" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1001,13 +1019,13 @@
     </row>
     <row r="6" spans="1:16">
       <c r="C6" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F6" s="3">
         <v>32</v>
@@ -1213,7 +1231,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" ht="30" customHeight="1">
       <c r="A12" s="9" t="s">
         <v>32</v>
       </c>
@@ -1238,14 +1256,14 @@
       <c r="H12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="12" t="s">
-        <v>23</v>
+      <c r="I12" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="J12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="12" t="s">
-        <v>24</v>
+      <c r="K12" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="L12" s="12" t="s">
         <v>24</v>
@@ -1263,24 +1281,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" ht="30" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>16</v>
@@ -1315,22 +1333,22 @@
     </row>
     <row r="14" spans="1:16" ht="30" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>16</v>
@@ -1342,45 +1360,45 @@
         <v>23</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="45" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>16</v>
@@ -1415,22 +1433,22 @@
     </row>
     <row r="16" spans="1:16" ht="30" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>16</v>
@@ -1465,22 +1483,22 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>16</v>
@@ -1515,22 +1533,22 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E18" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>74</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>25</v>
@@ -1563,27 +1581,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" ht="30" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>22</v>
@@ -1613,24 +1631,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" ht="30" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>16</v>
@@ -1639,7 +1657,7 @@
         <v>22</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J20" s="12" t="s">
         <v>24</v>
@@ -1665,22 +1683,22 @@
     </row>
     <row r="21" spans="1:16" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>16</v>
@@ -1689,7 +1707,7 @@
         <v>22</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>24</v>
@@ -1715,22 +1733,22 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>24</v>
+        <v>94</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>16</v>
@@ -1738,8 +1756,8 @@
       <c r="H22" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="12" t="s">
-        <v>24</v>
+      <c r="I22" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="J22" s="12" t="s">
         <v>24</v>
@@ -1765,22 +1783,22 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="5" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>16</v>
@@ -1788,8 +1806,8 @@
       <c r="H23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="8" t="s">
-        <v>24</v>
+      <c r="I23" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>24</v>
@@ -1813,24 +1831,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" ht="45" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>16</v>
@@ -1839,7 +1857,7 @@
         <v>22</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="J24" s="12" t="s">
         <v>24</v>
@@ -1886,27 +1904,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="8" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
